--- a/src/main/resources/template/excel/export/activityDetailQueryForCategory.xlsx
+++ b/src/main/resources/template/excel/export/activityDetailQueryForCategory.xlsx
@@ -136,15 +136,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.goodCategoryCode}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.goodCategoryName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.activityDiscount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.categoryName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.categoryCode}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -623,15 +623,14 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="8" width="19.125" customWidth="1"/>
@@ -701,13 +700,13 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
